--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_6.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="189">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1148,31 +1148,26 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Fish032</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>小龙虾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_lxq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_zp49</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish033</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>粽子鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_zp50</t>
+    <t>by_icon_xxboss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>animator_node|动画节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d</t>
+  </si>
+  <si>
+    <t>Fish3D087</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1183,7 +1178,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,6 +1221,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111F2C"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1284,7 +1285,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1323,6 +1324,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1601,11 +1605,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA34"/>
+  <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1633,7 +1637,7 @@
     <col min="28" max="28" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1715,8 +1719,11 @@
       <c r="AA1" s="11" t="s">
         <v>139</v>
       </c>
+      <c r="AB1" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1786,7 +1793,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1926,7 +1933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1996,7 +2003,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2066,7 +2073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2206,7 +2213,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2276,7 +2283,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2346,7 +2353,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2486,7 +2493,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2556,7 +2563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2626,7 +2633,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2696,7 +2703,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2766,7 +2773,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2906,7 +2913,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2976,7 +2983,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3044,7 +3051,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3114,7 +3121,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3186,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3259,7 +3266,7 @@
       </c>
       <c r="Z23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3335,7 +3342,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3486,7 +3493,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3565,7 +3572,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3640,7 +3647,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3712,7 +3719,7 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -3784,7 +3791,7 @@
       <c r="Z30" s="9"/>
       <c r="AA30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -3859,7 +3866,7 @@
       <c r="Z31" s="9"/>
       <c r="AA31" s="9"/>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3867,16 +3874,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="E32" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>186</v>
       </c>
       <c r="G32" s="6">
         <v>2.64</v>
@@ -3933,104 +3940,32 @@
       </c>
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
+      <c r="AB32" s="13" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="G33" s="6">
-        <v>2.64</v>
-      </c>
-      <c r="H33" s="6">
-        <v>2.38</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J33" s="1">
-        <v>30</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1</v>
-      </c>
-      <c r="L33" s="1">
-        <v>200</v>
-      </c>
-      <c r="M33" s="1">
-        <v>4</v>
-      </c>
-      <c r="N33" s="4"/>
-      <c r="O33" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0.73333333333333328</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="R33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="S33" s="7">
-        <v>1</v>
-      </c>
-      <c r="T33" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="U33" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="X33" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y33">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1184,6 +1184,22 @@
   </si>
   <si>
     <t>by_imgf_zp54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hfy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1654,11 +1670,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB33"/>
+  <dimension ref="A1:AB34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28:G29"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4071,6 +4087,84 @@
         <v>187</v>
       </c>
     </row>
+    <row r="34" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="H34" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="I34" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J34" s="14">
+        <v>30</v>
+      </c>
+      <c r="K34" s="17">
+        <v>1</v>
+      </c>
+      <c r="L34" s="14">
+        <v>200</v>
+      </c>
+      <c r="M34" s="14">
+        <v>4</v>
+      </c>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="P34" s="19">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="R34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S34" s="19">
+        <v>1</v>
+      </c>
+      <c r="T34" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="U34" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="V34" s="14"/>
+      <c r="W34" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X34" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y34" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="193">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1168,6 +1168,22 @@
   </si>
   <si>
     <t>Fish3D087</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D088</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hjboss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp54</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1229,7 +1245,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1240,6 +1256,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1285,7 +1307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,6 +1348,33 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1609,7 +1658,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3944,28 +3993,83 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+    <row r="33" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>32</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="H33" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="I33" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J33" s="14">
+        <v>30</v>
+      </c>
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+      <c r="L33" s="14">
+        <v>200</v>
+      </c>
+      <c r="M33" s="14">
+        <v>4</v>
+      </c>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="P33" s="19">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q33" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="R33" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S33" s="19">
+        <v>1</v>
+      </c>
+      <c r="T33" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="U33" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="V33" s="14"/>
+      <c r="W33" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X33" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y33" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="22" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1200,6 +1200,18 @@
   </si>
   <si>
     <t>by_iocn_hfy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_lhy_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1273,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,6 +1289,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,7 +1341,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1391,6 +1409,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1670,11 +1712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB34"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H36" sqref="H36"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4165,6 +4207,84 @@
         <v>187</v>
       </c>
     </row>
+    <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="23">
+        <v>34</v>
+      </c>
+      <c r="B35" s="23">
+        <v>34</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="24">
+        <v>2.64</v>
+      </c>
+      <c r="H35" s="24">
+        <v>2.38</v>
+      </c>
+      <c r="I35" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="J35" s="23">
+        <v>30</v>
+      </c>
+      <c r="K35" s="25">
+        <v>1</v>
+      </c>
+      <c r="L35" s="23">
+        <v>200</v>
+      </c>
+      <c r="M35" s="23">
+        <v>4</v>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27">
+        <v>0.64</v>
+      </c>
+      <c r="P35" s="27">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q35" s="27">
+        <v>0.74</v>
+      </c>
+      <c r="R35" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="S35" s="27">
+        <v>1</v>
+      </c>
+      <c r="T35" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="U35" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="V35" s="23"/>
+      <c r="W35" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="X35" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y35" s="29">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="30" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="203">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1213,6 +1213,17 @@
   <si>
     <t>by_lhy_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D091</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>饺子BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_jzy</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1352,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1434,6 +1445,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1712,11 +1726,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G42" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4285,6 +4299,84 @@
         <v>187</v>
       </c>
     </row>
+    <row r="36" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>35</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="15">
+        <v>2.64</v>
+      </c>
+      <c r="H36" s="15">
+        <v>2.38</v>
+      </c>
+      <c r="I36" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J36" s="14">
+        <v>30</v>
+      </c>
+      <c r="K36" s="17">
+        <v>1</v>
+      </c>
+      <c r="L36" s="14">
+        <v>200</v>
+      </c>
+      <c r="M36" s="14">
+        <v>4</v>
+      </c>
+      <c r="N36" s="18"/>
+      <c r="O36" s="19">
+        <v>0.64</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>0.74</v>
+      </c>
+      <c r="R36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="S36" s="19">
+        <v>1</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0.8</v>
+      </c>
+      <c r="U36" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="V36" s="14"/>
+      <c r="W36" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y36" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1219,11 +1219,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>饺子BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>by_iocn_jzy</t>
+  </si>
+  <si>
+    <t>袜子BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1730,7 +1730,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4310,13 +4310,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="F36" s="31" t="s">
         <v>201</v>
-      </c>
-      <c r="F36" s="31" t="s">
-        <v>202</v>
       </c>
       <c r="G36" s="15">
         <v>2.64</v>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="205">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1219,10 +1219,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>by_iocn_jzy</t>
-  </si>
-  <si>
-    <t>袜子BOSS</t>
+    <t>金牛BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1729,8 +1738,8 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4310,13 +4319,13 @@
         <v>200</v>
       </c>
       <c r="D36" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>202</v>
-      </c>
       <c r="F36" s="31" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G36" s="15">
         <v>2.64</v>
@@ -4361,7 +4370,9 @@
       <c r="U36" s="19">
         <v>0.1</v>
       </c>
-      <c r="V36" s="14"/>
+      <c r="V36" s="14" t="s">
+        <v>202</v>
+      </c>
       <c r="W36" s="20" t="s">
         <v>120</v>
       </c>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -1128,106 +1128,106 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Fish031</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲嘴鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_jwy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bk_icon_jwy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_icon_xxboss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>animator_node|动画节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fish3d</t>
+  </si>
+  <si>
+    <t>Fish3D087</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D088</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hjboss</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>火鸡鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hfy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D090</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_lhy_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D091</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>by_imgf_zp45</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Fish031</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲嘴鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_jwy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bk_icon_jwy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_icon_xxboss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_zp53</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>星星鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>animator_node|动画节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fish3d</t>
-  </si>
-  <si>
-    <t>Fish3D087</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D088</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hjboss</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>火鸡鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_zp54</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>话费鱼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D089</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_imgf_hfy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_iocn_hfy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D090</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_lhy_1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fish3D091</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金牛BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_8</t>
+    <t>act_ty_by_drop_9</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1738,7 +1738,7 @@
   <dimension ref="A1:AB36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -1850,7 +1850,7 @@
         <v>139</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -3866,7 +3866,7 @@
         <v>173</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="G30" s="6">
         <v>2.64</v>
@@ -3929,16 +3929,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D31" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="G31" s="6">
         <v>2.64</v>
@@ -4004,16 +4004,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="G32" s="6">
         <v>2.64</v>
@@ -4071,7 +4071,7 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4082,16 +4082,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="F33" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="G33" s="15">
         <v>2.64</v>
@@ -4149,7 +4149,7 @@
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4160,16 +4160,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>194</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>195</v>
       </c>
       <c r="G34" s="15">
         <v>2.64</v>
@@ -4227,7 +4227,7 @@
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4238,16 +4238,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="E35" s="24" t="s">
+      <c r="F35" s="24" t="s">
         <v>198</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>199</v>
       </c>
       <c r="G35" s="24">
         <v>2.64</v>
@@ -4305,7 +4305,7 @@
       <c r="Z35" s="28"/>
       <c r="AA35" s="28"/>
       <c r="AB35" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4316,7 +4316,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>204</v>
@@ -4371,7 +4371,7 @@
         <v>0.1</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="W36" s="20" t="s">
         <v>120</v>
@@ -4385,7 +4385,7 @@
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1128,6 +1128,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>by_imgf_zp45</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Fish031</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1219,19 +1223,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>星星BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>by_imgf_zp45</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_drop_9</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>act_ty_by_drop_8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>小丑BOSS</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1739,7 +1739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1850,7 +1850,7 @@
         <v>139</v>
       </c>
       <c r="AB1" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -3866,7 +3866,7 @@
         <v>173</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="G30" s="6">
         <v>2.64</v>
@@ -3929,16 +3929,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="G31" s="6">
         <v>2.64</v>
@@ -4004,16 +4004,16 @@
         <v>31</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F32" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>183</v>
       </c>
       <c r="G32" s="6">
         <v>2.64</v>
@@ -4071,7 +4071,7 @@
       <c r="Z32" s="9"/>
       <c r="AA32" s="9"/>
       <c r="AB32" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4082,16 +4082,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G33" s="15">
         <v>2.64</v>
@@ -4149,7 +4149,7 @@
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4160,16 +4160,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="F34" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>194</v>
       </c>
       <c r="G34" s="15">
         <v>2.64</v>
@@ -4227,7 +4227,7 @@
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:28" s="29" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4238,16 +4238,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D35" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="E35" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>197</v>
-      </c>
       <c r="F35" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G35" s="24">
         <v>2.64</v>
@@ -4305,7 +4305,7 @@
       <c r="Z35" s="28"/>
       <c r="AA35" s="28"/>
       <c r="AB35" s="30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:28" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -4316,16 +4316,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D36" s="31" t="s">
+        <v>203</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>201</v>
-      </c>
       <c r="F36" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G36" s="15">
         <v>2.64</v>
@@ -4371,7 +4371,7 @@
         <v>0.1</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W36" s="20" t="s">
         <v>120</v>
@@ -4385,7 +4385,7 @@
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish_config.xlsx
+++ b/config_Release/fish_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1215,10 +1215,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Fish3D091</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>18,19,20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1231,8 +1227,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>小丑BOSS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>活动BOSS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish_Act</t>
   </si>
 </sst>
 </file>
@@ -1739,7 +1738,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4316,16 +4315,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D36" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E36" s="15" t="s">
-        <v>204</v>
-      </c>
       <c r="F36" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G36" s="15">
         <v>2.64</v>
@@ -4371,7 +4370,7 @@
         <v>0.1</v>
       </c>
       <c r="V36" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W36" s="20" t="s">
         <v>120</v>
